--- a/database/industries/felezat/fameli/product/yearly.xlsx
+++ b/database/industries/felezat/fameli/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869BD1E-7B5E-434F-9244-4A751D417A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359A61E-97DA-4CC6-B604-257D93F29AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -674,12 +674,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -689,7 +689,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -723,7 +723,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -757,7 +757,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -789,7 +789,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -813,7 +813,7 @@
         <v>140570</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -837,7 +837,7 @@
         <v>8255</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -861,7 +861,7 @@
         <v>53919857</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -885,7 +885,7 @@
         <v>818809</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -909,7 +909,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1215863</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -953,11 +953,11 @@
       <c r="H16" s="9">
         <v>53472</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="9">
+        <v>54728</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -981,7 +981,7 @@
         <v>285012</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
@@ -1287,11 +1287,11 @@
       <c r="H30" s="9">
         <v>7545346</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="9">
+        <v>7015166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
@@ -1311,11 +1311,11 @@
       <c r="H31" s="11">
         <v>76581</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="11">
+        <v>68634</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
@@ -1335,11 +1335,11 @@
       <c r="H32" s="9">
         <v>355610</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="9">
+        <v>347976</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>37</v>
       </c>
@@ -1359,11 +1359,11 @@
       <c r="H33" s="11">
         <v>18179</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="11">
+        <v>26186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
@@ -1383,11 +1383,11 @@
       <c r="H34" s="9">
         <v>33084</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="9">
+        <v>98282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>39</v>
       </c>
@@ -1407,11 +1407,11 @@
       <c r="H35" s="11">
         <v>76100</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="11">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>40</v>
       </c>
@@ -1431,11 +1431,11 @@
       <c r="H36" s="9">
         <v>0</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,11 +1455,11 @@
       <c r="H37" s="11">
         <v>36069</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="11">
+        <v>38582</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>42</v>
       </c>
@@ -1479,11 +1479,11 @@
       <c r="H38" s="9">
         <v>0</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>44</v>
       </c>
@@ -1527,11 +1527,11 @@
       <c r="H40" s="9">
         <v>21103</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="9">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>45</v>
       </c>
@@ -1551,11 +1551,11 @@
       <c r="H41" s="11">
         <v>0</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>46</v>
       </c>
@@ -1575,11 +1575,11 @@
       <c r="H42" s="9">
         <v>120</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>47</v>
       </c>
@@ -1598,10 +1598,10 @@
         <v>63638978</v>
       </c>
       <c r="I43" s="13">
-        <v>56390228</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64147295</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1611,7 +1611,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1621,7 +1621,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1631,7 +1631,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1663,7 +1663,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>140570</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1440695</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>746084</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>16</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>17</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>16063</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>18</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>315416</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>49</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>52</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>21</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>22</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>23</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>53</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>53</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>24</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>25</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>26</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>55</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>28</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>30</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>32</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>33</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>47</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>2667153</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2317,7 +2317,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2337,7 +2337,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>56</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2369,7 +2369,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>10</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>335748</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>25282543</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>14</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>3311463</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>15</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>3758381</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>16</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>28775106</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>17</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>7483144</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>735110695</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>14566</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>49</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>50</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>51</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>52</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>21</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>5395955</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>22</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>23</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>58</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>53</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>25</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>26</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>55</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>32</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>33</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>809467601</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3025,7 +3025,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3035,7 +3035,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3045,7 +3045,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>59</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3077,7 +3077,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>2388475</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>13</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>4062757995</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>2298518</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>5037477</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>16</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>35134439560</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>17</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>465862168</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>19</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>2330606865</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>20</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>217402985</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>49</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>50</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>51</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>52</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>21</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>4437462993</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>22</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>23</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>24</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>25</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>26</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>55</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>28</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>30</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>32</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>33</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3697,7 +3697,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3707,7 +3707,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>63</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3739,7 +3739,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>10</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>13</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>-3768968</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>-2441249</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>15</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>-3100879</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>16</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>-900711</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>17</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>-2286065</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>18</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>19</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>-259367123</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>20</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>-27550</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>21</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>-1406832</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>22</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>23</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>53</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>24</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>25</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>26</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>28</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>30</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>32</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>33</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
         <v>47</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>-273299377</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4251,7 +4251,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4261,7 +4261,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4271,7 +4271,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>64</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4303,7 +4303,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>10</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>335748</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>21513575</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>14</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>870214</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>15</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>657502</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>16</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>27874395</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>17</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>5197079</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>18</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>19</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>475743572</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>20</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>-12984</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>21</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>3989123</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>22</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>23</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>53</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>24</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>25</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>26</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>28</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>30</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>32</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>33</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>47</v>
       </c>
